--- a/media/reports/Output_SGST.xlsx
+++ b/media/reports/Output_SGST.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Reports" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,7 +44,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,26 +59,18 @@
       <bottom style="thick"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -439,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +459,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fkjds</t>
+          <t>rk industries</t>
         </is>
       </c>
     </row>
@@ -495,7 +487,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>2020-09-11</t>
         </is>
       </c>
     </row>
@@ -507,7 +499,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yearly</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
@@ -538,43 +530,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>2020-08-11</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>new with tax</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>CN-0003</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>CREDITNOTE</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>1012.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="E11" s="1">
-        <f> SUM(E10:E10)</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>